--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Sema3c</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Sema3c</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2364093333333333</v>
+        <v>39.09670133333334</v>
       </c>
       <c r="H2">
-        <v>0.709228</v>
+        <v>117.290104</v>
       </c>
       <c r="I2">
-        <v>0.005805733041453686</v>
+        <v>0.9758026125363394</v>
       </c>
       <c r="J2">
-        <v>0.005805733041453687</v>
+        <v>0.9758026125363395</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N2">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q2">
-        <v>24.30972217721378</v>
+        <v>4325.764909387211</v>
       </c>
       <c r="R2">
-        <v>218.787499594924</v>
+        <v>38931.88418448489</v>
       </c>
       <c r="S2">
-        <v>0.003227476896623221</v>
+        <v>0.5343903894735661</v>
       </c>
       <c r="T2">
-        <v>0.003227476896623221</v>
+        <v>0.5343903894735662</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2364093333333333</v>
+        <v>39.09670133333334</v>
       </c>
       <c r="H3">
-        <v>0.709228</v>
+        <v>117.290104</v>
       </c>
       <c r="I3">
-        <v>0.005805733041453686</v>
+        <v>0.9758026125363394</v>
       </c>
       <c r="J3">
-        <v>0.005805733041453687</v>
+        <v>0.9758026125363395</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>190.987885</v>
       </c>
       <c r="O3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q3">
-        <v>15.05043952253111</v>
+        <v>2488.998766043338</v>
       </c>
       <c r="R3">
-        <v>135.45395570278</v>
+        <v>22400.98889439004</v>
       </c>
       <c r="S3">
-        <v>0.001998169517894569</v>
+        <v>0.3074825025971064</v>
       </c>
       <c r="T3">
-        <v>0.00199816951789457</v>
+        <v>0.3074825025971065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2364093333333333</v>
+        <v>39.09670133333334</v>
       </c>
       <c r="H4">
-        <v>0.709228</v>
+        <v>117.290104</v>
       </c>
       <c r="I4">
-        <v>0.005805733041453686</v>
+        <v>0.9758026125363394</v>
       </c>
       <c r="J4">
-        <v>0.005805733041453687</v>
+        <v>0.9758026125363395</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N4">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O4">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P4">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q4">
-        <v>4.369278291126666</v>
+        <v>1084.129685949522</v>
       </c>
       <c r="R4">
-        <v>39.32350462014</v>
+        <v>9757.167173545697</v>
       </c>
       <c r="S4">
-        <v>0.0005800866269358968</v>
+        <v>0.1339297204656668</v>
       </c>
       <c r="T4">
-        <v>0.0005800866269358968</v>
+        <v>0.1339297204656669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.09670133333334</v>
+        <v>0.9694973333333333</v>
       </c>
       <c r="H5">
-        <v>117.290104</v>
+        <v>2.908492</v>
       </c>
       <c r="I5">
-        <v>0.9601355730855794</v>
+        <v>0.02419738746366056</v>
       </c>
       <c r="J5">
-        <v>0.9601355730855795</v>
+        <v>0.02419738746366056</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N5">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q5">
-        <v>4020.272525022292</v>
+        <v>107.2678103587786</v>
       </c>
       <c r="R5">
-        <v>36182.45272520064</v>
+        <v>965.4102932290078</v>
       </c>
       <c r="S5">
-        <v>0.5337509247555579</v>
+        <v>0.01325150306509022</v>
       </c>
       <c r="T5">
-        <v>0.533750924755558</v>
+        <v>0.01325150306509022</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.09670133333334</v>
+        <v>0.9694973333333333</v>
       </c>
       <c r="H6">
-        <v>117.290104</v>
+        <v>2.908492</v>
       </c>
       <c r="I6">
-        <v>0.9601355730855794</v>
+        <v>0.02419738746366056</v>
       </c>
       <c r="J6">
-        <v>0.9601355730855795</v>
+        <v>0.02419738746366056</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>190.987885</v>
       </c>
       <c r="O6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q6">
-        <v>2488.998766043338</v>
+        <v>61.72074840215778</v>
       </c>
       <c r="R6">
-        <v>22400.98889439004</v>
+        <v>555.48673561942</v>
       </c>
       <c r="S6">
-        <v>0.3304515763104163</v>
+        <v>0.00762477283628006</v>
       </c>
       <c r="T6">
-        <v>0.3304515763104164</v>
+        <v>0.00762477283628006</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.09670133333334</v>
+        <v>0.9694973333333333</v>
       </c>
       <c r="H7">
-        <v>117.290104</v>
+        <v>2.908492</v>
       </c>
       <c r="I7">
-        <v>0.9601355730855794</v>
+        <v>0.02419738746366056</v>
       </c>
       <c r="J7">
-        <v>0.9601355730855795</v>
+        <v>0.02419738746366056</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N7">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O7">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P7">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q7">
-        <v>722.5787830869467</v>
+        <v>26.88361942748977</v>
       </c>
       <c r="R7">
-        <v>6503.20904778252</v>
+        <v>241.952574847408</v>
       </c>
       <c r="S7">
-        <v>0.09593307201960519</v>
+        <v>0.00332111156229027</v>
       </c>
       <c r="T7">
-        <v>0.09593307201960519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.386869333333333</v>
-      </c>
-      <c r="H8">
-        <v>4.160608</v>
-      </c>
-      <c r="I8">
-        <v>0.03405869387296686</v>
-      </c>
-      <c r="J8">
-        <v>0.03405869387296687</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>102.8289443333333</v>
-      </c>
-      <c r="N8">
-        <v>308.486833</v>
-      </c>
-      <c r="O8">
-        <v>0.5559120396302443</v>
-      </c>
-      <c r="P8">
-        <v>0.5559120396302443</v>
-      </c>
-      <c r="Q8">
-        <v>142.6103094749404</v>
-      </c>
-      <c r="R8">
-        <v>1283.492785274464</v>
-      </c>
-      <c r="S8">
-        <v>0.01893363797806311</v>
-      </c>
-      <c r="T8">
-        <v>0.01893363797806311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.386869333333333</v>
-      </c>
-      <c r="H9">
-        <v>4.160608</v>
-      </c>
-      <c r="I9">
-        <v>0.03405869387296686</v>
-      </c>
-      <c r="J9">
-        <v>0.03405869387296687</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>63.66262833333334</v>
-      </c>
-      <c r="N9">
-        <v>190.987885</v>
-      </c>
-      <c r="O9">
-        <v>0.3441717873742007</v>
-      </c>
-      <c r="P9">
-        <v>0.3441717873742007</v>
-      </c>
-      <c r="Q9">
-        <v>88.29174691489779</v>
-      </c>
-      <c r="R9">
-        <v>794.6257222340799</v>
-      </c>
-      <c r="S9">
-        <v>0.01172204154588974</v>
-      </c>
-      <c r="T9">
-        <v>0.01172204154588974</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.386869333333333</v>
-      </c>
-      <c r="H10">
-        <v>4.160608</v>
-      </c>
-      <c r="I10">
-        <v>0.03405869387296686</v>
-      </c>
-      <c r="J10">
-        <v>0.03405869387296687</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>18.481835</v>
-      </c>
-      <c r="N10">
-        <v>55.445505</v>
-      </c>
-      <c r="O10">
-        <v>0.09991617299555509</v>
-      </c>
-      <c r="P10">
-        <v>0.09991617299555508</v>
-      </c>
-      <c r="Q10">
-        <v>25.63189018522667</v>
-      </c>
-      <c r="R10">
-        <v>230.68701166704</v>
-      </c>
-      <c r="S10">
-        <v>0.003403014349014009</v>
-      </c>
-      <c r="T10">
-        <v>0.003403014349014009</v>
+        <v>0.00332111156229027</v>
       </c>
     </row>
   </sheetData>
